--- a/Mappings/LanguageProficiency - STU3.xlsx
+++ b/Mappings/LanguageProficiency - STU3.xlsx
@@ -1,202 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27498" windowHeight="13998"/>
   </bookViews>
   <sheets>
-    <sheet name="Voorblad" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
-    <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="CommunicatieTaalCodelijst" sheetId="5" r:id="rId5"/>
-    <sheet name="TaalvaardigheidBegrijpenCodelij" sheetId="6" r:id="rId6"/>
-    <sheet name="TaalvaardigheidLezenCodelijst" sheetId="7" r:id="rId7"/>
-    <sheet name="TaalvaardigheidSprekenCodelijst" sheetId="8" r:id="rId8"/>
-    <sheet name="Gebruiksvoorwaarden" sheetId="9" r:id="rId9"/>
+    <sheet name="Data" sheetId="4" r:id="rId1"/>
+    <sheet name="CommunicatieTaalCodelijst" sheetId="5" r:id="rId2"/>
+    <sheet name="TaalvaardigheidBegrijpenCodelij" sheetId="6" r:id="rId3"/>
+    <sheet name="TaalvaardigheidLezenCodelijst" sheetId="7" r:id="rId4"/>
+    <sheet name="TaalvaardigheidSprekenCodelijst" sheetId="8" r:id="rId5"/>
+    <sheet name="Gebruiksvoorwaarden" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
-  <si>
-    <t>Onderwerp</t>
-  </si>
-  <si>
-    <t>Beschrijving</t>
-  </si>
-  <si>
-    <t>ZIB</t>
-  </si>
-  <si>
-    <t>nl.zorg.Taalvaardigheid</t>
-  </si>
-  <si>
-    <t>Versie</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>ZIB Status</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Publicatie</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Publicatie status</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Publicatie datum</t>
-  </si>
-  <si>
-    <t>31-12-2017</t>
-  </si>
-  <si>
-    <t>XLS aangemaakt op</t>
-  </si>
-  <si>
-    <t>22-1-2018 10:39:54</t>
-  </si>
-  <si>
-    <t>Gebaseerd op</t>
-  </si>
-  <si>
-    <t>Release 2017</t>
-  </si>
-  <si>
-    <t>In beheer bij</t>
-  </si>
-  <si>
-    <t>Nictiz, Den Haag</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>DCM::CoderList</t>
-  </si>
-  <si>
-    <t>Werkgroep RadB Verpleegkundige Gegevens</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Address</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Name</t>
-  </si>
-  <si>
-    <t>DCM::ContactInformation.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::ContentAuthorList</t>
-  </si>
-  <si>
-    <t>DCM::CreationDate</t>
-  </si>
-  <si>
-    <t>2-4-2014</t>
-  </si>
-  <si>
-    <t>DCM::DeprecatedDate</t>
-  </si>
-  <si>
-    <t>DCM::DescriptionLanguage</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Address</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Name</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>DCM::EndorsingAuthority.Telecom</t>
-  </si>
-  <si>
-    <t>DCM::Id</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.4.3.11.60.40.3.7.12</t>
-  </si>
-  <si>
-    <t>DCM::KeywordList</t>
-  </si>
-  <si>
-    <t>Taalvaardigheid, communicatietaal, taalbeheersing</t>
-  </si>
-  <si>
-    <t>DCM::LifecycleStatus</t>
-  </si>
-  <si>
-    <t>DCM::ModelerList</t>
-  </si>
-  <si>
-    <t>DCM::Name</t>
-  </si>
-  <si>
-    <t>DCM::PublicationDate</t>
-  </si>
-  <si>
-    <t>DCM::PublicationStatus</t>
-  </si>
-  <si>
-    <t>DCM::ReviewerList</t>
-  </si>
-  <si>
-    <t>Projectgroep RadB Verpleegkundige Gegevens &amp; Kerngroep Registratie aan de Bron</t>
-  </si>
-  <si>
-    <t>DCM::RevisionDate</t>
-  </si>
-  <si>
-    <t>DCM::Superseeds</t>
-  </si>
-  <si>
-    <t>nl.zorg.Taalvaardigheid-v3.0</t>
-  </si>
-  <si>
-    <t>DCM::Version</t>
-  </si>
-  <si>
-    <t>HCIM::PublicationLanguage</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Concept</t>
-  </si>
-  <si>
-    <t>Taalvaardigheid is het vermogen zich uit te drukken in een taal en mededelingen gedaan in die taal te begrijpen. Het gaat daarbij zowel om mondelinge als schriftelijke communicatie.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Patiënten die de communicatie taal niet of niet goed beheersen hebben vaak moeite met het vragen om hulp en het begrijpen van de hulpverlening. Het vastleggen en communiceren van taalproblemen biedt andere zorgverleners hiervan kennis te nemen. Hierdoor zijn zij geattendeerd op mogelijke communicatieproblemen.
-Bovendien kan vastgelegd worden of er een andere taal is die de patiënt wel beheerst, zodat voor de communicatie met de patiënt eventueel de hulp van een tolk ingeroepen kan worden.</t>
   </si>
   <si>
     <t>Alias</t>
@@ -463,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -645,19 +475,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -665,122 +495,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2856900" cy="618995"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2856900" cy="618995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5080000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1428750" cy="504825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1428750" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="635000" y="635000"/>
-    <xdr:ext cx="8172450" cy="4524375"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8172450" cy="4524375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -822,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,9 +578,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,357 +823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C8" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C25" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="6" width="2" customWidth="1"/>
@@ -1425,17 +838,17 @@
     <col min="9" max="10" width="5" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="13" max="13" width="56.5859375" customWidth="1"/>
     <col min="14" max="14" width="20" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" customWidth="1"/>
-    <col min="17" max="17" width="35.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="43.5859375" customWidth="1"/>
+    <col min="17" max="17" width="56.29296875" customWidth="1"/>
+    <col min="18" max="18" width="12.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1443,42 +856,42 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="63.75" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="64.5" x14ac:dyDescent="0.5">
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1486,223 +899,223 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>143</v>
+      <c r="P8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="R8" s="2"/>
     </row>
@@ -1720,48 +1133,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1776,13 +1189,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1791,100 +1204,100 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1899,13 +1312,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1914,100 +1327,100 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2022,13 +1435,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -2037,100 +1450,100 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2145,45 +1558,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="153" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="154.80000000000001" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="38.700000000000003" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings/LanguageProficiency - STU3.xlsx
+++ b/Mappings/LanguageProficiency - STU3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn-nadm\Documents\Mijn docs\git\nictiz-stu3-zib2017\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nicitz-stu3-zibs2017\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27498" windowHeight="13998"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>Concept</t>
   </si>
@@ -288,13 +288,16 @@
   </si>
   <si>
     <t>286361000 Ability to use language (observable entity)</t>
+  </si>
+  <si>
+    <t>FHIR valueset or ZIB?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -337,8 +340,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +372,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,11 +441,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -484,10 +499,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,7 +525,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -578,23 +600,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -630,23 +635,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,27 +814,27 @@
   <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="25" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="56.5859375" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="56.5703125" customWidth="1"/>
     <col min="14" max="14" width="20" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.5859375" customWidth="1"/>
-    <col min="17" max="17" width="56.29296875" customWidth="1"/>
-    <col min="18" max="18" width="12.703125" customWidth="1"/>
+    <col min="16" max="16" width="43.5703125" customWidth="1"/>
+    <col min="17" max="17" width="56.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:18">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -889,7 +877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="64.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:18" ht="63.75">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -924,9 +912,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:18" ht="25.5">
       <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="12"/>
@@ -945,7 +933,7 @@
       <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -961,9 +949,11 @@
       <c r="Q4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="38.700000000000003" x14ac:dyDescent="0.5">
+      <c r="R4" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="25.5">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
@@ -1002,7 +992,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:18" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -1041,7 +1031,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:18" ht="25.5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>33</v>
@@ -1080,7 +1070,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:18" ht="25.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>38</v>
@@ -1139,14 +1129,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:5">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:5">
       <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:5">
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1195,7 +1185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1204,7 +1194,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7">
       <c r="C3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1205,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1249,7 +1239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1266,7 +1256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1283,7 +1273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" ht="25.5">
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1318,7 +1308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1327,7 +1317,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7">
       <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
@@ -1338,7 +1328,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1355,7 +1345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1372,7 +1362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1389,7 +1379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1406,7 +1396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" ht="25.5">
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1441,7 +1431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1450,7 +1440,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:7">
       <c r="C3" s="17" t="s">
         <v>32</v>
       </c>
@@ -1461,7 +1451,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1478,7 +1468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1495,7 +1485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +1502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1529,7 +1519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:7" ht="25.5">
       <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1564,37 +1554,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="154.80000000000001" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:2" ht="153">
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:2" ht="25.5">
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.700000000000003" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:2" ht="38.25">
       <c r="B7" s="2" t="s">
         <v>75</v>
       </c>

--- a/Mappings/LanguageProficiency - STU3.xlsx
+++ b/Mappings/LanguageProficiency - STU3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Concept</t>
   </si>
@@ -275,22 +275,19 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>Patient.communication.extension.LanguageControlListening</t>
-  </si>
-  <si>
-    <t>Patient.communication.extension.LanguageControlSpeaking</t>
-  </si>
-  <si>
-    <t>Patient.communication.extension.LanguageControlReading</t>
-  </si>
-  <si>
     <t>Patient.communication.extension.comment</t>
   </si>
   <si>
     <t>286361000 Ability to use language (observable entity)</t>
   </si>
   <si>
-    <t>FHIR valueset or ZIB?</t>
+    <t>Patient.communication.extension:languageProficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of FHIR valueset. </t>
+  </si>
+  <si>
+    <t>Use of Offical FHIR core extension from the R4 build. Made suitable for STU3</t>
   </si>
 </sst>
 </file>
@@ -342,7 +339,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -376,11 +373,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -440,13 +437,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -496,18 +530,27 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -814,7 +857,7 @@
   <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -909,12 +952,12 @@
         <v>78</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="25.5">
       <c r="B4" s="11"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="12"/>
@@ -949,11 +992,11 @@
       <c r="Q4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="25.5">
+      <c r="R4" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="76.5" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
@@ -988,9 +1031,11 @@
         <v>81</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="2:18" ht="25.5">
       <c r="B6" s="11"/>
@@ -1027,9 +1072,9 @@
         <v>81</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="2:18" ht="25.5">
       <c r="B7" s="11"/>
@@ -1068,7 +1113,7 @@
       <c r="Q7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="2:18" ht="25.5">
       <c r="B8" s="11"/>
@@ -1105,11 +1150,14 @@
         <v>80</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R8" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R5:R7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="O4" location="CommunicatieTaalCodelijst!A1" display="CommunicatieTaalCodelijst"/>
     <hyperlink ref="O5" location="TaalvaardigheidBegrijpenCodelij!A1" display="TaalvaardigheidBegrijpenCodelijst"/>
@@ -1137,11 +1185,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1195,15 +1243,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -1318,15 +1366,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -1441,15 +1489,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
